--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327244.310255178</v>
+        <v>2324992.230543971</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.30849817221924</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771028</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>262.9161535118032</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673316</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>97.66568238532317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>136.0870494265637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.02864725723283</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>160.9359580870425</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018862</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176627</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856381</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833226</v>
+        <v>252.1376433238239</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576408</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340525</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812055</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141674</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.0280580960838</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>62.64725059288605</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1938.906022842684</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1569.943505902272</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.677807295521</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1211.677807295521</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>800.691902505914</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>385.6194523509104</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>88.03585195967764</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.33740552049</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.27451817692</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906805</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906805</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906805</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.101759311882</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.13924237147</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1200.13924237147</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1200.13924237147</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>789.1533375818628</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>374.0808874268593</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.07534488301</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.07534488301</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612895</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351815</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376004</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780107</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501038</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>529.017994137768</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553749</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410104</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410104</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064541</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>691.6489789975187</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>522.7127960696118</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946292</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1094.090022971289</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.2974438277585</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2284.401509754965</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2064.800044777906</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1775.724818122104</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1521.040329916217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.623159879256</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.841029837709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,13 +5896,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6230,10 +6230,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708854</v>
+        <v>513.8536007400764</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429785</v>
+        <v>344.9174178121696</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429785</v>
+        <v>344.9174178121696</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429785</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429785</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000565</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679633</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744655</v>
+        <v>916.2946447138463</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011252</v>
+        <v>695.5020655703162</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723914</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111718</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>445.6984928076095</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>298.8085453096991</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>157.0967141518972</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20.09032791460211</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948029</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405054</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788483</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600918</v>
+        <v>146.8157004124953</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5874149221285734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572567946</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>830800.8733044806</v>
+        <v>830800.8733044807</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>830800.8733044806</v>
+        <v>830800.8733044807</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302032</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813233</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813233</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678117</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,16 +26442,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678111</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26491,13 +26491,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.481948907</v>
+        <v>-910641.4819489062</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786863</v>
+        <v>418103.2637786866</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.263778687</v>
+        <v>418103.2637786865</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.8698494608</v>
+        <v>168233.1319240251</v>
       </c>
       <c r="F6" t="n">
-        <v>493680.331656816</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="G6" t="n">
-        <v>493680.3316568157</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="H6" t="n">
-        <v>493680.331656816</v>
+        <v>493645.59373138</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595385</v>
+        <v>276114.3913341029</v>
       </c>
       <c r="K6" t="n">
-        <v>493680.3316568161</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="L6" t="n">
-        <v>493680.3316568164</v>
+        <v>493645.5937313805</v>
       </c>
       <c r="M6" t="n">
-        <v>408625.3037213042</v>
+        <v>408590.5657958686</v>
       </c>
       <c r="N6" t="n">
-        <v>493680.331656816</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="O6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="P6" t="n">
-        <v>493680.3316568159</v>
+        <v>493645.5937313802</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022933</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022935</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.26843160070663</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31.69161087551726</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718947</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>154.4719609385048</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>233.6440512519054</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.5868257609795</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.003898693245978e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32470,13 +32470,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356893</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33500,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>194.518932411124</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>530.4152909475297</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092783</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897912</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458081</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36118,13 +36118,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558151</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263124987</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525766</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>399.0735788641963</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>27.13475084531435</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991702</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525766</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013637</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
